--- a/Data.xlsx
+++ b/Data.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19260" windowHeight="7428" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19260" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I24"/>
+  <oleSize ref="A1:I22"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -588,7 +588,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19260" windowHeight="9060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15792" windowHeight="5412" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I22"/>
+  <oleSize ref="A68:F84"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="51">
   <si>
     <t>y</t>
   </si>
@@ -111,6 +111,69 @@
   </si>
   <si>
     <t>vacateParking</t>
+  </si>
+  <si>
+    <t>validateNearestParking</t>
+  </si>
+  <si>
+    <t>TotalSlotNumber</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Black, Red, Orange</t>
+  </si>
+  <si>
+    <t>123, 345, 456</t>
+  </si>
+  <si>
+    <t>parkingInFulllyParkedslots</t>
+  </si>
+  <si>
+    <t>ParkVacateGetStatus</t>
+  </si>
+  <si>
+    <t>invalidColorStatus</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>wrongcolor</t>
+  </si>
+  <si>
+    <t>ParkVacateGetStatusByRNAndColor</t>
+  </si>
+  <si>
+    <t>Parking4</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>noParkedandVacate</t>
+  </si>
+  <si>
+    <t>Parking5</t>
+  </si>
+  <si>
+    <t>VacateSlotgtTotalSlot</t>
+  </si>
+  <si>
+    <t>Parking6</t>
+  </si>
+  <si>
+    <t>noParkedCar_getTheStatus</t>
+  </si>
+  <si>
+    <t>Parking7</t>
   </si>
 </sst>
 </file>
@@ -503,15 +566,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -575,6 +638,70 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
         <v>3</v>
       </c>
     </row>
@@ -585,10 +712,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,7 +797,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1132,7 +1259,9 @@
       <c r="B49" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="4"/>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -1145,7 +1274,9 @@
       <c r="B50" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D50" s="3"/>
       <c r="F50" s="3"/>
     </row>
@@ -1156,13 +1287,320 @@
       <c r="B51" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C51" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>0</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>25</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="7"/>
+    </row>
+    <row r="54" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F68" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
